--- a/techniqo/data_new_ticker/UJJIVAN.xlsx
+++ b/techniqo/data_new_ticker/UJJIVAN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1079"/>
+  <dimension ref="A1:G1081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38151,6 +38151,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>225.25</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>232.45</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>808771</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>233.65</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>228.1</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>735798</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/UJJIVAN.xlsx
+++ b/techniqo/data_new_ticker/UJJIVAN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1081"/>
+  <dimension ref="A1:G1083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38201,6 +38201,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>222</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>222.7</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>869415</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>226.85</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>217.1</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>223.55</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>1123971</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
